--- a/20_営業/07_会計/TE030/T_TE030_CFO_019_A15_04_電子帳簿仕訳の情報系システム連携_OIC統合.xlsx
+++ b/20_営業/07_会計/TE030/T_TE030_CFO_019_A15_04_電子帳簿仕訳の情報系システム連携_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\30_テストフェーズ\20_パフォーマンステスト\30_不具合フォルダ\PT0006_CFO_040\20_恒久対応\20_対応中\単体テスト\XXCFO_019_A15_04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\無影響確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ3) " sheetId="11" r:id="rId8"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ4)" sheetId="12" r:id="rId9"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ5)" sheetId="13" r:id="rId10"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId11"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId12"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ6)" sheetId="14" r:id="rId11"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId12"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$19</definedName>
@@ -32,11 +33,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ3) '!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'テスト仕様_テスト結果(テスト・シナリオ5)'!$A$1:$I$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'テスト仕様_テスト結果(テスト・シナリオ6)'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="229">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -1209,10 +1211,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Issue1.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>正常終了する。
 リターン値は以下となっていること。
 {
@@ -1328,17 +1326,155 @@
   <si>
     <t>T_TE030_CFO_019_A15_04_電子帳簿仕訳の情報系システム連携_OIC統合_エビデンス.xlsx</t>
   </si>
+  <si>
+    <t>Issue1.1</t>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="7">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>シナリオ6</t>
+  </si>
+  <si>
+    <t>OIC3アップグレード 無影響確認テスト(DBへのCUID・共通処理動作確認)</t>
+  </si>
+  <si>
+    <t>テスト・シナリオ6</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>正常終了する。</t>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A15_04を実行する。
+OIC3アップグレードの影響でDBへのCUIDを実行するアクティビティまたは共通関数を呼び出すアクティビティの実行に影響が出ていないことを確認する。</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A15_04(電子帳簿仕訳の情報系システム連携)</t>
+    <rPh sb="15" eb="19">
+      <t>デンシチョウボ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シワケ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ジョウホウケイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(前回処理日取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(業務日付取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(処理開始時刻取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(猶予日数取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(初回データ対象日時取得
+)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A15_04から共通処理XXCCD002が実行され、正常終了する。</t>
+    <rPh sb="16" eb="20">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>6-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_TE030_CFO_019_A15_04_電子帳簿仕訳の情報系システム連携_OIC統合_エビデンス(シナリオ6).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力パラメータ：
+{
+"paramList": 1
+}</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応 無影響確認</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1526,6 +1662,21 @@
       <charset val="128"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2199,7 +2350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2556,6 +2707,47 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2602,6 +2794,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -6514,6 +6707,731 @@
         <a:xfrm>
           <a:off x="28575" y="30184725"/>
           <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30502860"/>
+          <a:ext cx="6939915" cy="2606040"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33204150"/>
+          <a:ext cx="6939915" cy="2802255"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29683710"/>
+          <a:ext cx="3303270" cy="455295"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -6858,7 +7776,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -6868,7 +7786,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1">
+    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6876,7 +7794,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1">
+    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -6885,7 +7803,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -6894,67 +7812,67 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="130" t="s">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1">
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1">
+    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="131" t="s">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-    </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1">
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+    </row>
+    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="131" t="s">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-    </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="131" t="s">
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+    </row>
+    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -6962,11 +7880,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1">
+    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -6974,23 +7892,23 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1">
+    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>45023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>73</v>
       </c>
@@ -6998,25 +7916,25 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1">
+    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1">
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -7028,7 +7946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1">
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -7062,11 +7980,11 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -7079,7 +7997,7 @@
     <col min="10" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -7090,35 +8008,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>41</v>
       </c>
@@ -7144,7 +8062,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="42">
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B11" s="122" t="s">
         <v>168</v>
       </c>
@@ -7160,7 +8078,7 @@
       <c r="H11" s="45"/>
       <c r="I11" s="75"/>
     </row>
-    <row r="12" spans="1:9" ht="105">
+    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B12" s="122" t="s">
         <v>169</v>
       </c>
@@ -7169,22 +8087,22 @@
       </c>
       <c r="D12" s="118"/>
       <c r="E12" s="118" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F12" s="118" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="H12" s="45" t="s">
         <v>194</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>195</v>
       </c>
       <c r="I12" s="75">
         <v>45023</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="122" t="s">
         <v>170</v>
@@ -7201,7 +8119,7 @@
       <c r="H13" s="56"/>
       <c r="I13" s="75"/>
     </row>
-    <row r="14" spans="1:9" ht="115.5">
+    <row r="14" spans="1:9" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="122" t="s">
         <v>171</v>
@@ -7211,22 +8129,22 @@
       </c>
       <c r="D14" s="118"/>
       <c r="E14" s="118" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="F14" s="118" t="s">
+      <c r="G14" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="H14" s="45" t="s">
         <v>194</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>195</v>
       </c>
       <c r="I14" s="75">
         <v>45023</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="122"/>
       <c r="C15" s="45"/>
       <c r="D15" s="118"/>
@@ -7236,7 +8154,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="75"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="37"/>
       <c r="B16" s="122"/>
       <c r="C16" s="45"/>
@@ -7247,7 +8165,7 @@
       <c r="H16" s="56"/>
       <c r="I16" s="75"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="37"/>
       <c r="B17" s="122"/>
       <c r="C17" s="45"/>
@@ -7258,7 +8176,7 @@
       <c r="H17" s="56"/>
       <c r="I17" s="75"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="122"/>
       <c r="C18" s="45"/>
       <c r="D18" s="118"/>
@@ -7268,7 +8186,7 @@
       <c r="H18" s="45"/>
       <c r="I18" s="75"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="122"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
@@ -7278,7 +8196,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="75"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="63"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
@@ -7288,7 +8206,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="75"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="63"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
@@ -7298,7 +8216,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="75"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="63"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
@@ -7308,7 +8226,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="75"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="63"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
@@ -7318,7 +8236,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="75"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="63"/>
       <c r="C24" s="116"/>
       <c r="D24" s="45"/>
@@ -7328,7 +8246,7 @@
       <c r="H24" s="45"/>
       <c r="I24" s="75"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="63"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
@@ -7338,7 +8256,7 @@
       <c r="H25" s="45"/>
       <c r="I25" s="75"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="67"/>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
@@ -7348,7 +8266,7 @@
       <c r="H26" s="45"/>
       <c r="I26" s="75"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="67"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
@@ -7358,7 +8276,7 @@
       <c r="H27" s="45"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="67"/>
       <c r="C28" s="45"/>
       <c r="D28" s="45"/>
@@ -7368,7 +8286,7 @@
       <c r="H28" s="45"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="71"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -7378,7 +8296,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
@@ -7388,7 +8306,7 @@
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
@@ -7398,7 +8316,7 @@
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -7408,7 +8326,7 @@
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="31" t="s">
         <v>160</v>
       </c>
@@ -7418,9 +8336,9 @@
       <c r="H33" s="34"/>
       <c r="I33" s="34"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
@@ -7430,7 +8348,7 @@
       <c r="H34" s="34"/>
       <c r="I34" s="34"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
@@ -7440,7 +8358,7 @@
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
@@ -7450,7 +8368,7 @@
       <c r="H36" s="34"/>
       <c r="I36" s="34"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
@@ -7460,7 +8378,7 @@
       <c r="H37" s="34"/>
       <c r="I37" s="34"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
@@ -7470,7 +8388,7 @@
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
@@ -7496,12 +8414,383 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="26" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="106" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A11" s="137"/>
+      <c r="B11" s="142" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="144" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="139" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="140" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="140" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="138" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="139" t="s">
+        <v>211</v>
+      </c>
+      <c r="I11" s="143">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A12" s="137"/>
+      <c r="B12" s="142" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="141" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="140" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="139" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" s="139" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" s="143">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="137"/>
+      <c r="B13" s="142" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="144"/>
+      <c r="D13" s="141" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="140" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="139" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="139" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" s="143">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="136" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="137"/>
+      <c r="B14" s="142" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="144"/>
+      <c r="D14" s="141" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="140" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="139" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="139" t="s">
+        <v>211</v>
+      </c>
+      <c r="I14" s="143">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="136" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="137"/>
+      <c r="B15" s="142" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="144"/>
+      <c r="D15" s="141" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="F15" s="140" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="139" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="139" t="s">
+        <v>211</v>
+      </c>
+      <c r="I15" s="143">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="135"/>
+      <c r="B16" s="142" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="140"/>
+      <c r="D16" s="141" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16" s="140" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16" s="139" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="139" t="s">
+        <v>211</v>
+      </c>
+      <c r="I16" s="143">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="71"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="125" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="125"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G17">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="26" customWidth="1"/>
@@ -7511,7 +8800,7 @@
     <col min="9" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1">
+    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -7521,51 +8810,51 @@
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="135" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="150" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="133" t="s">
+      <c r="H5" s="148" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="136"/>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="151"/>
       <c r="C6" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="134"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="153"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="149"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="65" t="s">
         <v>71</v>
       </c>
@@ -7576,7 +8865,7 @@
       <c r="G7" s="44"/>
       <c r="H7" s="66"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="67"/>
       <c r="C8" s="41"/>
       <c r="D8" s="43"/>
@@ -7585,7 +8874,7 @@
       <c r="G8" s="47"/>
       <c r="H8" s="68"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="67"/>
       <c r="C9" s="45"/>
       <c r="D9" s="41"/>
@@ -7594,7 +8883,7 @@
       <c r="G9" s="51"/>
       <c r="H9" s="68"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="67"/>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
@@ -7603,7 +8892,7 @@
       <c r="G10" s="47"/>
       <c r="H10" s="68"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="67"/>
       <c r="C11" s="41"/>
       <c r="D11" s="45"/>
@@ -7612,7 +8901,7 @@
       <c r="G11" s="52"/>
       <c r="H11" s="69"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="67"/>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
@@ -7621,7 +8910,7 @@
       <c r="G12" s="51"/>
       <c r="H12" s="69"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="67"/>
       <c r="C13" s="41"/>
       <c r="D13" s="53"/>
@@ -7630,7 +8919,7 @@
       <c r="G13" s="47"/>
       <c r="H13" s="70"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="67"/>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -7639,7 +8928,7 @@
       <c r="G14" s="51"/>
       <c r="H14" s="69"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="67"/>
       <c r="C15" s="41"/>
       <c r="D15" s="53"/>
@@ -7648,7 +8937,7 @@
       <c r="G15" s="47"/>
       <c r="H15" s="70"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="67"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
@@ -7657,7 +8946,7 @@
       <c r="G16" s="51"/>
       <c r="H16" s="68"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="67"/>
       <c r="C17" s="41"/>
       <c r="D17" s="53"/>
@@ -7666,7 +8955,7 @@
       <c r="G17" s="47"/>
       <c r="H17" s="69"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="67"/>
       <c r="C18" s="45"/>
       <c r="D18" s="41"/>
@@ -7675,7 +8964,7 @@
       <c r="G18" s="51"/>
       <c r="H18" s="68"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="67"/>
       <c r="C19" s="41"/>
       <c r="D19" s="45"/>
@@ -7684,7 +8973,7 @@
       <c r="G19" s="47"/>
       <c r="H19" s="69"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="67"/>
       <c r="C20" s="45"/>
       <c r="D20" s="41"/>
@@ -7693,7 +8982,7 @@
       <c r="G20" s="51"/>
       <c r="H20" s="68"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="67"/>
       <c r="C21" s="41"/>
       <c r="D21" s="45"/>
@@ -7702,7 +8991,7 @@
       <c r="G21" s="47"/>
       <c r="H21" s="69"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="67"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
@@ -7711,7 +9000,7 @@
       <c r="G22" s="51"/>
       <c r="H22" s="68"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="65"/>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
@@ -7720,7 +9009,7 @@
       <c r="G23" s="55"/>
       <c r="H23" s="68"/>
     </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1">
+    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="71"/>
       <c r="C24" s="72"/>
       <c r="D24" s="72"/>
@@ -7750,14 +9039,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="26" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="26" customWidth="1"/>
@@ -7768,7 +9057,7 @@
     <col min="8" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
+    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -7777,25 +9066,25 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
+    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="58"/>
       <c r="B7" s="109" t="s">
         <v>60</v>
@@ -7816,7 +9105,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="59"/>
       <c r="C8" s="60"/>
@@ -7825,7 +9114,7 @@
       <c r="F8" s="61"/>
       <c r="G8" s="62"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -7834,23 +9123,23 @@
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="58"/>
       <c r="B14" s="109" t="s">
         <v>60</v>
@@ -7871,7 +9160,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
       <c r="B15" s="63"/>
       <c r="C15" s="38"/>
@@ -7880,7 +9169,7 @@
       <c r="F15" s="39"/>
       <c r="G15" s="64"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
       <c r="B16" s="63"/>
       <c r="C16" s="38"/>
@@ -7889,7 +9178,7 @@
       <c r="F16" s="39"/>
       <c r="G16" s="64"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
       <c r="B17" s="63"/>
       <c r="C17" s="38"/>
@@ -7898,7 +9187,7 @@
       <c r="F17" s="39"/>
       <c r="G17" s="64"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
       <c r="B18" s="59"/>
       <c r="C18" s="60"/>
@@ -7926,16 +9215,16 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1">
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -7946,29 +9235,29 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1">
+    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="98" t="s">
         <v>10</v>
       </c>
@@ -7986,7 +9275,7 @@
       <c r="H7" s="100"/>
       <c r="I7" s="101"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="90">
         <v>45023</v>
       </c>
@@ -7994,7 +9283,7 @@
         <v>174</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>13</v>
@@ -8004,17 +9293,25 @@
       <c r="H8" s="22"/>
       <c r="I8" s="91"/>
     </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="90"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="21"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="130">
+        <v>45561</v>
+      </c>
+      <c r="C9" s="131" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="132" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="133" t="s">
+        <v>228</v>
+      </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="91"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="90"/>
       <c r="C10" s="20"/>
       <c r="D10" s="23"/>
@@ -8024,7 +9321,7 @@
       <c r="H10" s="22"/>
       <c r="I10" s="91"/>
     </row>
-    <row r="11" spans="1:9" ht="14.25" thickBot="1">
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="92"/>
       <c r="C11" s="93"/>
       <c r="D11" s="94"/>
@@ -8034,16 +9331,16 @@
       <c r="H11" s="96"/>
       <c r="I11" s="97"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
     </row>
   </sheetData>
@@ -8065,13 +9362,13 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="6.625" style="26" customWidth="1"/>
     <col min="14" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -8086,156 +9383,156 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="37" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="28"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1">
+    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="26" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" customHeight="1">
+    <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="37" t="s">
         <v>82</v>
       </c>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1">
+    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" customHeight="1">
+    <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:13" ht="6" customHeight="1">
+    <row r="23" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" customHeight="1">
+    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" customHeight="1">
+    <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M26" s="29"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" customHeight="1">
+    <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="26" t="s">
         <v>24</v>
       </c>
       <c r="M27" s="29"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" customHeight="1">
+    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="26" t="s">
         <v>25</v>
       </c>
       <c r="M28" s="29"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" customHeight="1">
+    <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="26" t="s">
         <v>26</v>
       </c>
       <c r="M29" s="29"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M30" s="29"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="26" t="s">
         <v>28</v>
       </c>
       <c r="M31" s="29"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" customHeight="1">
+    <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="26" t="s">
         <v>29</v>
       </c>
       <c r="M32" s="29"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45" customHeight="1">
+    <row r="33" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="26" t="s">
         <v>30</v>
       </c>
       <c r="M33" s="29"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" customHeight="1">
+    <row r="34" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="26" t="s">
         <v>31</v>
       </c>
       <c r="M34" s="29"/>
     </row>
-    <row r="35" spans="2:13" ht="14.45" customHeight="1">
+    <row r="35" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M35" s="29"/>
     </row>
-    <row r="36" spans="2:13" ht="14.45" customHeight="1">
+    <row r="36" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M36" s="29"/>
     </row>
-    <row r="37" spans="2:13" ht="14.45" customHeight="1">
+    <row r="37" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M37" s="29"/>
     </row>
   </sheetData>
@@ -8253,13 +9550,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="81"/>
     <col min="4" max="4" width="22.125" style="81" customWidth="1"/>
@@ -8268,7 +9566,7 @@
     <col min="7" max="16384" width="2.75" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1">
+    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="80"/>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -8276,7 +9574,7 @@
       <c r="E1" s="80"/>
       <c r="F1" s="80"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="79" t="s">
         <v>72</v>
       </c>
@@ -8286,7 +9584,7 @@
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="78"/>
       <c r="B3" s="78"/>
       <c r="C3" s="82"/>
@@ -8294,7 +9592,7 @@
       <c r="E3" s="82"/>
       <c r="F3" s="82"/>
     </row>
-    <row r="4" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="4" spans="1:6" s="84" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="83"/>
       <c r="B4" s="83"/>
       <c r="C4" s="83"/>
@@ -8304,7 +9602,7 @@
       <c r="E4" s="83"/>
       <c r="F4" s="83"/>
     </row>
-    <row r="5" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="83"/>
       <c r="B5" s="83"/>
       <c r="C5" s="83"/>
@@ -8312,7 +9610,7 @@
       <c r="E5" s="83"/>
       <c r="F5" s="83"/>
     </row>
-    <row r="6" spans="1:6" s="84" customFormat="1" ht="12">
+    <row r="6" spans="1:6" s="84" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="83"/>
       <c r="B6" s="83"/>
       <c r="C6" s="83"/>
@@ -8324,7 +9622,7 @@
       </c>
       <c r="F6" s="83"/>
     </row>
-    <row r="7" spans="1:6" s="84" customFormat="1">
+    <row r="7" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="83"/>
       <c r="B7" s="83"/>
       <c r="C7" s="83"/>
@@ -8336,7 +9634,7 @@
       </c>
       <c r="F7" s="83"/>
     </row>
-    <row r="8" spans="1:6" s="84" customFormat="1" ht="22.5">
+    <row r="8" spans="1:6" s="84" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A8" s="83"/>
       <c r="B8" s="83"/>
       <c r="C8" s="83"/>
@@ -8348,7 +9646,7 @@
       </c>
       <c r="F8" s="83"/>
     </row>
-    <row r="9" spans="1:6" s="84" customFormat="1">
+    <row r="9" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="83"/>
       <c r="B9" s="83"/>
       <c r="C9" s="83"/>
@@ -8360,7 +9658,7 @@
       </c>
       <c r="F9" s="83"/>
     </row>
-    <row r="10" spans="1:6" s="84" customFormat="1">
+    <row r="10" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="83"/>
       <c r="B10" s="83"/>
       <c r="C10" s="83"/>
@@ -8372,7 +9670,7 @@
       </c>
       <c r="F10" s="83"/>
     </row>
-    <row r="11" spans="1:6" s="84" customFormat="1">
+    <row r="11" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="83"/>
       <c r="B11" s="83"/>
       <c r="C11" s="83"/>
@@ -8384,15 +9682,19 @@
       </c>
       <c r="F11" s="83"/>
     </row>
-    <row r="12" spans="1:6" s="84" customFormat="1">
+    <row r="12" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="83"/>
       <c r="B12" s="83"/>
       <c r="C12" s="83"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="86"/>
+      <c r="D12" s="120" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="134" t="s">
+        <v>207</v>
+      </c>
       <c r="F12" s="83"/>
     </row>
-    <row r="13" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="13" spans="1:6" s="84" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A13" s="83"/>
       <c r="B13" s="83"/>
       <c r="C13" s="83"/>
@@ -8400,7 +9702,7 @@
       <c r="E13" s="86"/>
       <c r="F13" s="83"/>
     </row>
-    <row r="14" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="14" spans="1:6" s="84" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A14" s="83"/>
       <c r="B14" s="83"/>
       <c r="C14" s="83"/>
@@ -8408,7 +9710,7 @@
       <c r="E14" s="86"/>
       <c r="F14" s="83"/>
     </row>
-    <row r="15" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="15" spans="1:6" s="84" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A15" s="83"/>
       <c r="B15" s="83"/>
       <c r="C15" s="83"/>
@@ -8416,7 +9718,7 @@
       <c r="E15" s="86"/>
       <c r="F15" s="83"/>
     </row>
-    <row r="16" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="16" spans="1:6" s="84" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A16" s="83"/>
       <c r="B16" s="83"/>
       <c r="C16" s="83"/>
@@ -8424,7 +9726,7 @@
       <c r="E16" s="86"/>
       <c r="F16" s="83"/>
     </row>
-    <row r="17" spans="1:6" s="84" customFormat="1" ht="12" thickBot="1">
+    <row r="17" spans="1:6" s="84" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="87"/>
       <c r="B17" s="83"/>
       <c r="C17" s="83"/>
@@ -8432,7 +9734,7 @@
       <c r="E17" s="89"/>
       <c r="F17" s="83"/>
     </row>
-    <row r="18" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="18" spans="1:6" s="84" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A18" s="83"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
@@ -8440,7 +9742,7 @@
       <c r="E18" s="87"/>
       <c r="F18" s="87"/>
     </row>
-    <row r="19" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="19" spans="1:6" s="84" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A19" s="87"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
@@ -8456,6 +9758,7 @@
     <hyperlink ref="D10" location="'テスト仕様_テスト結果(テスト・シナリオ4)'!A1" display="シナリオ4"/>
     <hyperlink ref="D9" location="'テスト仕様_テスト結果(テスト・シナリオ3) '!A1" display="シナリオ3"/>
     <hyperlink ref="D11" location="'テスト仕様_テスト結果(テスト・シナリオ5)'!A1" display="シナリオ5"/>
+    <hyperlink ref="D12" location="'テスト仕様_テスト結果(テスト・シナリオ6)'!A1" display="シナリオ6"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
@@ -8475,7 +9778,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="26" customWidth="1"/>
@@ -8483,51 +9786,51 @@
     <col min="4" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="6" customHeight="1">
+    <row r="1" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" s="32"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="126" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="132" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="132"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="147"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="127"/>
       <c r="C8" s="127"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" thickBot="1">
+    <row r="10" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" thickBot="1">
+    <row r="11" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="113" t="s">
         <v>77</v>
       </c>
@@ -8535,7 +9838,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="115" customFormat="1" ht="21.75" thickBot="1">
+    <row r="12" spans="1:4" s="115" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="119" t="s">
         <v>93</v>
       </c>
@@ -8543,20 +9846,20 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="32"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" thickBot="1">
+    <row r="15" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" thickBot="1">
+    <row r="16" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="113" t="s">
         <v>77</v>
       </c>
@@ -8564,7 +9867,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="32.25" thickBot="1">
+    <row r="17" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="119" t="s">
         <v>93</v>
       </c>
@@ -8572,7 +9875,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="32.25" thickBot="1">
+    <row r="18" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="119" t="s">
         <v>93</v>
       </c>
@@ -8580,7 +9883,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="32.25" thickBot="1">
+    <row r="19" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="119" t="s">
         <v>93</v>
       </c>
@@ -8588,7 +9891,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="32.25" thickBot="1">
+    <row r="20" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="119" t="s">
         <v>93</v>
       </c>
@@ -8596,7 +9899,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="32.25" thickBot="1">
+    <row r="21" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="119" t="s">
         <v>93</v>
       </c>
@@ -8604,7 +9907,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="32.25" thickBot="1">
+    <row r="22" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="119" t="s">
         <v>93</v>
       </c>
@@ -8612,15 +9915,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" s="32"/>
     </row>
-    <row r="24" spans="2:3" ht="14.25" thickBot="1">
+    <row r="24" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="14.25" thickBot="1">
+    <row r="25" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="113" t="s">
         <v>77</v>
       </c>
@@ -8628,7 +9931,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="32.25" thickBot="1">
+    <row r="26" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="119" t="s">
         <v>93</v>
       </c>
@@ -8636,7 +9939,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="32.25" thickBot="1">
+    <row r="27" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="119" t="s">
         <v>93</v>
       </c>
@@ -8644,7 +9947,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="32.25" thickBot="1">
+    <row r="28" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="119" t="s">
         <v>93</v>
       </c>
@@ -8652,7 +9955,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="32.25" thickBot="1">
+    <row r="29" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="119" t="s">
         <v>93</v>
       </c>
@@ -8660,7 +9963,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="32.25" thickBot="1">
+    <row r="30" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="119" t="s">
         <v>93</v>
       </c>
@@ -8668,40 +9971,40 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="32"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" s="33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="32"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="33" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" s="32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" s="32"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
     </row>
@@ -8726,10 +10029,10 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -8742,7 +10045,7 @@
     <col min="10" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -8753,35 +10056,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>41</v>
       </c>
@@ -8807,7 +10110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="63" t="s">
         <v>81</v>
@@ -8822,7 +10125,7 @@
       <c r="H11" s="50"/>
       <c r="I11" s="77"/>
     </row>
-    <row r="12" spans="1:9" ht="115.5">
+    <row r="12" spans="1:9" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="63" t="s">
         <v>84</v>
@@ -8834,22 +10137,22 @@
         <v>97</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F12" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="H12" s="38" t="s">
         <v>194</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>195</v>
       </c>
       <c r="I12" s="77">
         <v>45023</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="63"/>
       <c r="C13" s="45"/>
@@ -8858,19 +10161,19 @@
         <v>109</v>
       </c>
       <c r="F13" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="H13" s="38" t="s">
         <v>194</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>195</v>
       </c>
       <c r="I13" s="75">
         <v>45023</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="63"/>
       <c r="C14" s="45"/>
@@ -8879,19 +10182,19 @@
         <v>111</v>
       </c>
       <c r="F14" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="H14" s="38" t="s">
         <v>194</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>195</v>
       </c>
       <c r="I14" s="75">
         <v>45023</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="63"/>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -8901,7 +10204,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="75"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="63"/>
       <c r="C16" s="116"/>
       <c r="D16" s="45"/>
@@ -8911,7 +10214,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="75"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="63"/>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
@@ -8921,7 +10224,7 @@
       <c r="H17" s="45"/>
       <c r="I17" s="75"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="63"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
@@ -8931,7 +10234,7 @@
       <c r="H18" s="45"/>
       <c r="I18" s="75"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="63"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
@@ -8941,7 +10244,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="75"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="63"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
@@ -8951,7 +10254,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="75"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="37"/>
       <c r="B21" s="63"/>
       <c r="C21" s="45"/>
@@ -8962,7 +10265,7 @@
       <c r="H21" s="56"/>
       <c r="I21" s="75"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="37"/>
       <c r="B22" s="63"/>
       <c r="C22" s="45"/>
@@ -8973,7 +10276,7 @@
       <c r="H22" s="56"/>
       <c r="I22" s="75"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="63"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
@@ -8983,7 +10286,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="75"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="37"/>
       <c r="B24" s="63"/>
       <c r="C24" s="45"/>
@@ -8994,7 +10297,7 @@
       <c r="H24" s="56"/>
       <c r="I24" s="75"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
       <c r="B25" s="63"/>
       <c r="C25" s="45"/>
@@ -9005,7 +10308,7 @@
       <c r="H25" s="56"/>
       <c r="I25" s="75"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="63"/>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
@@ -9015,7 +10318,7 @@
       <c r="H26" s="45"/>
       <c r="I26" s="75"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="63"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
@@ -9025,7 +10328,7 @@
       <c r="H27" s="45"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="63"/>
       <c r="C28" s="45"/>
       <c r="D28" s="45"/>
@@ -9035,7 +10338,7 @@
       <c r="H28" s="45"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="63"/>
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
@@ -9045,7 +10348,7 @@
       <c r="H29" s="45"/>
       <c r="I29" s="75"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="63"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
@@ -9055,7 +10358,7 @@
       <c r="H30" s="45"/>
       <c r="I30" s="75"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="63"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
@@ -9065,7 +10368,7 @@
       <c r="H31" s="45"/>
       <c r="I31" s="75"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="63"/>
       <c r="C32" s="116"/>
       <c r="D32" s="45"/>
@@ -9075,7 +10378,7 @@
       <c r="H32" s="45"/>
       <c r="I32" s="75"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="63"/>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
@@ -9085,7 +10388,7 @@
       <c r="H33" s="45"/>
       <c r="I33" s="75"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="63"/>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
@@ -9095,7 +10398,7 @@
       <c r="H34" s="45"/>
       <c r="I34" s="75"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="67"/>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
@@ -9105,7 +10408,7 @@
       <c r="H35" s="45"/>
       <c r="I35" s="75"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="67"/>
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
@@ -9115,7 +10418,7 @@
       <c r="H36" s="45"/>
       <c r="I36" s="75"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25" thickBot="1">
+    <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="71"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -9125,7 +10428,7 @@
       <c r="H37" s="46"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
@@ -9135,7 +10438,7 @@
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
@@ -9145,7 +10448,7 @@
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
     </row>
-    <row r="40" spans="1:9" ht="6" customHeight="1">
+    <row r="40" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -9155,7 +10458,7 @@
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25">
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="31" t="s">
         <v>49</v>
       </c>
@@ -9165,9 +10468,9 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
@@ -9177,7 +10480,7 @@
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="125"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -9187,7 +10490,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -9197,7 +10500,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
@@ -9207,7 +10510,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -9217,7 +10520,7 @@
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -9249,12 +10552,12 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E13" sqref="E13"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -9267,7 +10570,7 @@
     <col min="10" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -9278,35 +10581,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>41</v>
       </c>
@@ -9332,7 +10635,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="63" t="s">
         <v>98</v>
@@ -9359,7 +10662,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="115.5">
+    <row r="12" spans="1:9" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="63" t="s">
         <v>99</v>
@@ -9374,19 +10677,19 @@
         <v>188</v>
       </c>
       <c r="F12" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="H12" s="50" t="s">
         <v>194</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>195</v>
       </c>
       <c r="I12" s="77">
         <v>45023</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="63"/>
       <c r="C13" s="45"/>
@@ -9395,19 +10698,19 @@
         <v>109</v>
       </c>
       <c r="F13" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="H13" s="50" t="s">
         <v>194</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>195</v>
       </c>
       <c r="I13" s="77">
         <v>45023</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="63"/>
       <c r="C14" s="45"/>
@@ -9416,19 +10719,19 @@
         <v>111</v>
       </c>
       <c r="F14" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="H14" s="50" t="s">
         <v>194</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>195</v>
       </c>
       <c r="I14" s="77">
         <v>45023</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21">
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B15" s="63" t="s">
         <v>114</v>
       </c>
@@ -9454,7 +10757,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="105">
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B16" s="63" t="s">
         <v>115</v>
       </c>
@@ -9465,22 +10768,22 @@
         <v>116</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F16" s="118" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="H16" s="50" t="s">
         <v>194</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>195</v>
       </c>
       <c r="I16" s="77">
         <v>45023</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21">
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B17" s="63" t="s">
         <v>117</v>
       </c>
@@ -9506,7 +10809,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="105">
+    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B18" s="63" t="s">
         <v>118</v>
       </c>
@@ -9517,22 +10820,22 @@
         <v>119</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F18" s="118" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="H18" s="50" t="s">
         <v>194</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>195</v>
       </c>
       <c r="I18" s="77">
         <v>45023</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21">
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B19" s="63" t="s">
         <v>120</v>
       </c>
@@ -9558,7 +10861,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="84">
+    <row r="20" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B20" s="63" t="s">
         <v>121</v>
       </c>
@@ -9572,19 +10875,19 @@
         <v>102</v>
       </c>
       <c r="F20" s="118" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="G20" s="50" t="s">
+      <c r="H20" s="50" t="s">
         <v>194</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>195</v>
       </c>
       <c r="I20" s="77">
         <v>45023</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21">
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B21" s="63" t="s">
         <v>123</v>
       </c>
@@ -9610,7 +10913,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="84">
+    <row r="22" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B22" s="63" t="s">
         <v>124</v>
       </c>
@@ -9624,19 +10927,19 @@
         <v>102</v>
       </c>
       <c r="F22" s="118" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="H22" s="50" t="s">
         <v>194</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>195</v>
       </c>
       <c r="I22" s="77">
         <v>45023</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21">
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B23" s="63" t="s">
         <v>126</v>
       </c>
@@ -9662,7 +10965,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="84">
+    <row r="24" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A24" s="37"/>
       <c r="B24" s="63" t="s">
         <v>127</v>
@@ -9677,19 +10980,19 @@
         <v>102</v>
       </c>
       <c r="F24" s="118" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="H24" s="50" t="s">
         <v>194</v>
-      </c>
-      <c r="H24" s="50" t="s">
-        <v>195</v>
       </c>
       <c r="I24" s="77">
         <v>45023</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
       <c r="B25" s="63"/>
       <c r="C25" s="45"/>
@@ -9700,7 +11003,7 @@
       <c r="H25" s="56"/>
       <c r="I25" s="75"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="63"/>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
@@ -9710,7 +11013,7 @@
       <c r="H26" s="45"/>
       <c r="I26" s="75"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="63"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
@@ -9720,7 +11023,7 @@
       <c r="H27" s="45"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="63"/>
       <c r="C28" s="45"/>
       <c r="D28" s="45"/>
@@ -9730,7 +11033,7 @@
       <c r="H28" s="45"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="63"/>
       <c r="C29" s="116"/>
       <c r="D29" s="45"/>
@@ -9740,7 +11043,7 @@
       <c r="H29" s="45"/>
       <c r="I29" s="75"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="63"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
@@ -9750,7 +11053,7 @@
       <c r="H30" s="45"/>
       <c r="I30" s="75"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="67"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
@@ -9760,7 +11063,7 @@
       <c r="H31" s="45"/>
       <c r="I31" s="75"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="67"/>
       <c r="C32" s="45"/>
       <c r="D32" s="45"/>
@@ -9770,7 +11073,7 @@
       <c r="H32" s="45"/>
       <c r="I32" s="75"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="67"/>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
@@ -9780,7 +11083,7 @@
       <c r="H33" s="45"/>
       <c r="I33" s="75"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" thickBot="1">
+    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="71"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -9790,7 +11093,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
@@ -9800,7 +11103,7 @@
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
@@ -9810,7 +11113,7 @@
       <c r="H36" s="34"/>
       <c r="I36" s="34"/>
     </row>
-    <row r="37" spans="1:9" ht="6" customHeight="1">
+    <row r="37" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -9820,7 +11123,7 @@
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25">
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="31" t="s">
         <v>49</v>
       </c>
@@ -9830,9 +11133,9 @@
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
@@ -9842,7 +11145,7 @@
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -9852,7 +11155,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -9862,7 +11165,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
@@ -9872,7 +11175,7 @@
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -9882,7 +11185,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -9914,12 +11217,12 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E13" sqref="E13"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -9932,7 +11235,7 @@
     <col min="10" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -9943,35 +11246,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>41</v>
       </c>
@@ -9997,7 +11300,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="63" t="s">
         <v>100</v>
@@ -10024,7 +11327,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B12" s="63" t="s">
         <v>101</v>
       </c>
@@ -10038,19 +11341,19 @@
         <v>102</v>
       </c>
       <c r="F12" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="H12" s="45" t="s">
         <v>194</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>195</v>
       </c>
       <c r="I12" s="75">
         <v>45023</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="63"/>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
@@ -10058,19 +11361,19 @@
         <v>109</v>
       </c>
       <c r="F13" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="H13" s="45" t="s">
         <v>194</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>195</v>
       </c>
       <c r="I13" s="75">
         <v>45023</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="63"/>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -10078,19 +11381,19 @@
         <v>103</v>
       </c>
       <c r="F14" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="H14" s="45" t="s">
         <v>194</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>195</v>
       </c>
       <c r="I14" s="75">
         <v>45023</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="63"/>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -10098,19 +11401,19 @@
         <v>111</v>
       </c>
       <c r="F15" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="H15" s="45" t="s">
         <v>194</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>195</v>
       </c>
       <c r="I15" s="75">
         <v>45023</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B16" s="63" t="s">
         <v>130</v>
       </c>
@@ -10133,10 +11436,10 @@
         <v>167</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="84">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B17" s="63" t="s">
         <v>131</v>
       </c>
@@ -10150,19 +11453,19 @@
         <v>102</v>
       </c>
       <c r="F17" s="118" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="H17" s="45" t="s">
         <v>194</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>195</v>
       </c>
       <c r="I17" s="75">
         <v>45023</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21">
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A18" s="37"/>
       <c r="B18" s="63" t="s">
         <v>134</v>
@@ -10189,7 +11492,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="84">
+    <row r="19" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A19" s="37"/>
       <c r="B19" s="63" t="s">
         <v>135</v>
@@ -10204,19 +11507,19 @@
         <v>102</v>
       </c>
       <c r="F19" s="118" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="H19" s="45" t="s">
         <v>194</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>195</v>
       </c>
       <c r="I19" s="75">
         <v>45023</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="21">
+    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B20" s="63" t="s">
         <v>137</v>
       </c>
@@ -10242,7 +11545,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="84">
+    <row r="21" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A21" s="37"/>
       <c r="B21" s="63" t="s">
         <v>138</v>
@@ -10257,19 +11560,19 @@
         <v>102</v>
       </c>
       <c r="F21" s="118" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="H21" s="45" t="s">
         <v>194</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>195</v>
       </c>
       <c r="I21" s="75">
         <v>45023</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21">
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A22" s="37"/>
       <c r="B22" s="63" t="s">
         <v>140</v>
@@ -10296,7 +11599,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="84">
+    <row r="23" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B23" s="63" t="s">
         <v>141</v>
       </c>
@@ -10310,19 +11613,19 @@
         <v>102</v>
       </c>
       <c r="F23" s="118" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="H23" s="45" t="s">
         <v>194</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>195</v>
       </c>
       <c r="I23" s="75">
         <v>45023</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="63"/>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
@@ -10332,7 +11635,7 @@
       <c r="H24" s="45"/>
       <c r="I24" s="75"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="63"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
@@ -10342,7 +11645,7 @@
       <c r="H25" s="45"/>
       <c r="I25" s="75"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="63"/>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
@@ -10352,7 +11655,7 @@
       <c r="H26" s="45"/>
       <c r="I26" s="75"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="63"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
@@ -10362,7 +11665,7 @@
       <c r="H27" s="45"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="63"/>
       <c r="C28" s="45"/>
       <c r="D28" s="45"/>
@@ -10372,7 +11675,7 @@
       <c r="H28" s="45"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="63"/>
       <c r="C29" s="116"/>
       <c r="D29" s="45"/>
@@ -10382,7 +11685,7 @@
       <c r="H29" s="45"/>
       <c r="I29" s="75"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="63"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
@@ -10392,7 +11695,7 @@
       <c r="H30" s="45"/>
       <c r="I30" s="75"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="67"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
@@ -10402,7 +11705,7 @@
       <c r="H31" s="45"/>
       <c r="I31" s="75"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="67"/>
       <c r="C32" s="45"/>
       <c r="D32" s="45"/>
@@ -10412,7 +11715,7 @@
       <c r="H32" s="45"/>
       <c r="I32" s="75"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="67"/>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
@@ -10422,7 +11725,7 @@
       <c r="H33" s="45"/>
       <c r="I33" s="75"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" thickBot="1">
+    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="71"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -10432,7 +11735,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
@@ -10442,7 +11745,7 @@
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
@@ -10452,7 +11755,7 @@
       <c r="H36" s="34"/>
       <c r="I36" s="34"/>
     </row>
-    <row r="37" spans="1:9" ht="6" customHeight="1">
+    <row r="37" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -10462,7 +11765,7 @@
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25">
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="31" t="s">
         <v>49</v>
       </c>
@@ -10472,9 +11775,9 @@
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
@@ -10484,7 +11787,7 @@
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -10494,7 +11797,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -10504,7 +11807,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
@@ -10514,7 +11817,7 @@
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -10524,7 +11827,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -10557,10 +11860,10 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -10573,7 +11876,7 @@
     <col min="10" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -10584,35 +11887,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>41</v>
       </c>
@@ -10638,7 +11941,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="122" t="s">
         <v>104</v>
@@ -10653,7 +11956,7 @@
       <c r="H11" s="117"/>
       <c r="I11" s="124"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B12" s="122" t="s">
         <v>106</v>
       </c>
@@ -10664,22 +11967,22 @@
         <v>107</v>
       </c>
       <c r="E12" s="118" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F12" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" s="45" t="s">
         <v>201</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>202</v>
       </c>
       <c r="I12" s="75">
         <v>45023</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="122"/>
       <c r="C13" s="123"/>
       <c r="D13" s="118"/>
@@ -10687,19 +11990,19 @@
         <v>109</v>
       </c>
       <c r="F13" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="45" t="s">
         <v>201</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>202</v>
       </c>
       <c r="I13" s="75">
         <v>45023</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="122"/>
       <c r="C14" s="45"/>
       <c r="D14" s="118"/>
@@ -10707,19 +12010,19 @@
         <v>108</v>
       </c>
       <c r="F14" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="45" t="s">
         <v>201</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>202</v>
       </c>
       <c r="I14" s="75">
         <v>45023</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="122"/>
       <c r="C15" s="123"/>
       <c r="D15" s="118"/>
@@ -10727,19 +12030,19 @@
         <v>110</v>
       </c>
       <c r="F15" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="45" t="s">
         <v>201</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>202</v>
       </c>
       <c r="I15" s="75">
         <v>45023</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="122"/>
       <c r="C16" s="45"/>
       <c r="D16" s="118"/>
@@ -10749,7 +12052,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="75"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="122"/>
       <c r="C17" s="123"/>
       <c r="D17" s="118"/>
@@ -10759,7 +12062,7 @@
       <c r="H17" s="45"/>
       <c r="I17" s="75"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="122"/>
       <c r="C18" s="45"/>
       <c r="D18" s="118"/>
@@ -10769,7 +12072,7 @@
       <c r="H18" s="45"/>
       <c r="I18" s="75"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="122"/>
       <c r="C19" s="45"/>
       <c r="D19" s="118"/>
@@ -10779,7 +12082,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="75"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="37"/>
       <c r="B20" s="122"/>
       <c r="C20" s="45"/>
@@ -10790,7 +12093,7 @@
       <c r="H20" s="56"/>
       <c r="I20" s="75"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="37"/>
       <c r="B21" s="122"/>
       <c r="C21" s="45"/>
@@ -10801,7 +12104,7 @@
       <c r="H21" s="56"/>
       <c r="I21" s="75"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="122"/>
       <c r="C22" s="45"/>
       <c r="D22" s="118"/>
@@ -10811,7 +12114,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="75"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="37"/>
       <c r="B23" s="122"/>
       <c r="C23" s="45"/>
@@ -10822,7 +12125,7 @@
       <c r="H23" s="56"/>
       <c r="I23" s="75"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="37"/>
       <c r="B24" s="122"/>
       <c r="C24" s="45"/>
@@ -10833,7 +12136,7 @@
       <c r="H24" s="56"/>
       <c r="I24" s="75"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="122"/>
       <c r="C25" s="45"/>
       <c r="D25" s="118"/>
@@ -10843,7 +12146,7 @@
       <c r="H25" s="45"/>
       <c r="I25" s="75"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="122"/>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
@@ -10853,7 +12156,7 @@
       <c r="H26" s="45"/>
       <c r="I26" s="75"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="63"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
@@ -10863,7 +12166,7 @@
       <c r="H27" s="45"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="63"/>
       <c r="C28" s="45"/>
       <c r="D28" s="45"/>
@@ -10873,7 +12176,7 @@
       <c r="H28" s="45"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="67"/>
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
@@ -10883,7 +12186,7 @@
       <c r="H29" s="45"/>
       <c r="I29" s="75"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="71"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -10893,7 +12196,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
@@ -10903,7 +12206,7 @@
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
@@ -10913,7 +12216,7 @@
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -10923,7 +12226,7 @@
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="31" t="s">
         <v>49</v>
       </c>
@@ -10933,9 +12236,9 @@
       <c r="H34" s="34"/>
       <c r="I34" s="34"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
@@ -10945,7 +12248,7 @@
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
@@ -10955,7 +12258,7 @@
       <c r="H36" s="34"/>
       <c r="I36" s="34"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
@@ -10965,7 +12268,7 @@
       <c r="H37" s="34"/>
       <c r="I37" s="34"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
@@ -10975,7 +12278,7 @@
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
@@ -10985,7 +12288,7 @@
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -10995,7 +12298,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -11005,7 +12308,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
@@ -11015,7 +12318,7 @@
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -11025,7 +12328,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -11035,7 +12338,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
